--- a/drobne_testy/prognozy_test.xlsx
+++ b/drobne_testy/prognozy_test.xlsx
@@ -162,11 +162,11 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -211,7 +211,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>-18</v>
+        <v>-1.2</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -252,7 +252,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>5</v>
+        <v>-1.9</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
@@ -293,7 +293,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>-18</v>
+        <v>-2</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>-0.8</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
@@ -375,7 +375,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>-18</v>
+        <v>3.1</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>6</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>7</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>9</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>-14</v>
+        <v>5.4</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>11</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>12</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>-12</v>
+        <v>6.2</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>13</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>14</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>-19</v>
+        <v>5.4</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>15</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>16</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>-11</v>
+        <v>5.9</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>17</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>18</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>-16</v>
+        <v>5.2</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>19</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>20</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>-20</v>
+        <v>6.9</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>21</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>22</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>-19</v>
+        <v>5.2</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>23</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>24</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>-20</v>
+        <v>5.4</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>25</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>26</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>-18</v>
+        <v>8.2</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>27</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>28</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>-22</v>
+        <v>8.3</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>29</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>30</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>-25</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>31</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>0</v>
+        <v>8.2</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>32</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>-29</v>
+        <v>10.2</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>33</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>0</v>
+        <v>9.3</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>34</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>-26</v>
+        <v>6.7</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>35</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>36</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>-26</v>
+        <v>3.7</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>37</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>38</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>-25</v>
+        <v>1.3</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>39</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>5</v>
+        <v>-36.4</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>40</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>-24</v>
+        <v>-30.1</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>41</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>6</v>
+        <v>-19.4</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>42</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>-25</v>
+        <v>-13.4</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>1</v>
+        <v>-15.2</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>44</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>45</v>
